--- a/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_tree_structure.xlsx
+++ b/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_tree_structure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
         <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -590,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
         <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -635,6 +635,709 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>--ИНРТ.100.01.00.000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.01.01.003</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>НФ-00002222,ЛГ</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.01.01.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>------ИНРТ.100.01.01.001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>НФ-00002223,ЛГ</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>------ИНРТ.100.01.01.002</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>НФ-00002221_2.2м,Р,Т,Ф</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>------ИНРТ.100.01.01.003</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>НФ-00002222,ЛГ</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>------ИНРТ.100.01.01.003</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1м,Р</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.01.02.000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>------ИНРТ.100.01.02.001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>НФ-00002224_0.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.01.01.003</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>--ИНРТ.100.02.00.000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.02.00.001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>НФ-00002223,ГМ</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.02.00.002</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>НФ-00002225_1.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.01.01.003</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>НФ-00002222,ЛГ</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>--ИНРТ.100.01.02.000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>----ИНРТ.100.01.02.001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>НФ-00002224_0.2м,Р,Т</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>--ИНРТ.100.01.01.002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>--MA01-20.15.150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>--BB01-NMRV</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Сборочная единица</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Дополнительная информация</t>
         </is>

--- a/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_tree_structure.xlsx
+++ b/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000_tree_structure.xlsx
@@ -515,25 +515,21 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K2" t="n">
+        <v>4</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -552,25 +548,25 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>4</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Подкос</t>
+        </is>
       </c>
       <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K3" t="n">
+        <v>16</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>НФ-00002221_2.2м,Р,Т,Ф</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -589,23 +585,23 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>10</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Болт М20х1,5х150 DIN 933</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>20</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -622,23 +618,23 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Мотор-редуктор NMRV</t>
+        </is>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
+      <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -655,25 +651,21 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -692,25 +684,25 @@
       <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Косынка</t>
+        </is>
       </c>
       <c r="J7" t="n">
         <v>8</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K7" t="n">
+        <v>16</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>НФ-00002222,ЛГ</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -729,25 +721,21 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -766,25 +754,25 @@
       <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>8</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Борт</t>
+        </is>
       </c>
       <c r="J9" t="n">
         <v>16</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K9" t="n">
+        <v>32</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>НФ-00002223,ЛГ</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -803,25 +791,25 @@
       <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Подкос</t>
+        </is>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K10" t="n">
+        <v>16</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>НФ-00002221_2.2м,Р,Т,Ф</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -840,25 +828,25 @@
       <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>6</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Косынка</t>
+        </is>
       </c>
       <c r="J11" t="n">
         <v>12</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K11" t="n">
+        <v>24</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>НФ-00002222,ЛГ</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -877,25 +865,25 @@
       <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>4</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Перемычка</t>
+        </is>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K12" t="n">
+        <v>16</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>НФ-00002225_1м,Р</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -914,25 +902,21 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K13" t="n">
+        <v>2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -951,25 +935,25 @@
       <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Палец</t>
+        </is>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K14" t="n">
+        <v>8</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>НФ-00002224_0.2м,Р,Т</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -978,7 +962,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>----ИНРТ.100.01.01.003</t>
+          <t>----</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -988,25 +972,21 @@
       <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>8</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1025,25 +1005,21 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1062,25 +1038,25 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>2</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Фланец</t>
+        </is>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K17" t="n">
+        <v>8</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>НФ-00002223,ГМ</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1099,25 +1075,25 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>2</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Шток</t>
+        </is>
       </c>
       <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K18" t="n">
+        <v>8</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
           <t>НФ-00002225_1.2м,Р,Т</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1136,25 +1112,25 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>4</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Косынка</t>
+        </is>
       </c>
       <c r="J19" t="n">
         <v>8</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K19" t="n">
+        <v>16</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>НФ-00002222,ЛГ</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1173,25 +1149,21 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
         <v>4</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1210,25 +1182,25 @@
       <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>4</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Палец</t>
+        </is>
       </c>
       <c r="J21" t="n">
         <v>8</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
+      <c r="K21" t="n">
+        <v>16</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>НФ-00002224_0.2м,Р,Т</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1208,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>--ИНРТ.100.01.01.002</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1247,25 +1219,21 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>8</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1241,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>--MA01-20.15.150</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1284,25 +1252,21 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>10</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>20</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1274,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>--BB01-NMRV</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1321,25 +1285,21 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
         <v>4</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
         </is>
       </c>
     </row>
